--- a/static/hierarchy/downloads/product-template.xlsx
+++ b/static/hierarchy/downloads/product-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Igor Item Class</t>
   </si>
@@ -67,24 +67,6 @@
   </si>
   <si>
     <t>MBL</t>
-  </si>
-  <si>
-    <t>New Name A this is getting to be lorum ipsum</t>
-  </si>
-  <si>
-    <t>New Name B as;ldfjk as;lkdfj ;alsdjk f;lksajd f;lkjasd ;fjk as;lkf kjsad</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>IGOR sublclasdf;ljakdjf;lkjas;dlfkja;slkdjfsd1234</t>
-  </si>
-  <si>
-    <t>Subpldesc890890890890</t>
-  </si>
-  <si>
-    <t>E1blah blah blah blahb lah</t>
   </si>
   <si>
     <t>Existing Product Line Group Code</t>
@@ -217,13 +199,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -562,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -594,54 +575,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
